--- a/自己申请Oct_27.xlsx
+++ b/自己申请Oct_27.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EC45EC-1FAE-C140-9490-D1FDA7823502}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0C19A3-A3E7-C044-B939-6624545770C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="27700" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="定校信息" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="192">
   <si>
     <t>账号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -780,6 +780,63 @@
   <si>
     <t>https://www.tudelft.nl/en/education/admission-and-application/msc-international-diploma/required-documents/</t>
   </si>
+  <si>
+    <t>https://www.cs.ubc.ca/students/grad/admissions/application-components-required-documents/documents-be-uploaded-applicant#Intent</t>
+  </si>
+  <si>
+    <t>Personal Statement Prompt
+The purpose of the Personal Statement is for you to share more about your past experiences and to discuss how these experiences have contributed to your personal and professional growth. It allows the applicant the opportunity to explain to the admission committee the distinct qualities and commitment they can bring to the Columbia Engineering community.
+A few topics that you may want to address in your Personal Statement include:
+Describe the reasons you are interested in this program and discuss any relevant past experience.
+If you have relevant work or research experience, please indicate how it helped you decide on your career path.
+What are your post-graduation plans or career goals?
+What do you hope to gain from this program?
+What about this program excites you?
+If there are any special circumstances that need to be brought to the attention of the Admission Committee, please include that information.
+Instructions
+We recommend that your Personal Statement be 250 - 500 words. If possible, the following format is preferred:
+All margins should be at least one inch, and the left and right margins should be equal.
+Text should be double spaced.
+The preferred fonts are 10-point Arial or 12-point Times New Roman; however, any legible serif or sans-serif standard font may be used. Do not use script or ornamental fonts. 
+Your name should appear in the Header or Footer of every page.
+It is integral to the admissions process that you write and submit this Personal Statement on your own. Any evidence of plagiarized materials may result in denial or revocation of admission.</t>
+  </si>
+  <si>
+    <t>https://www.cc.gatech.edu/future/masters/mscs</t>
+  </si>
+  <si>
+    <t>Feb 1st, 2021</t>
+  </si>
+  <si>
+    <t>https://www.cc.gatech.edu/academics/degree-programs/masters/computer-science/admissionreqs</t>
+  </si>
+  <si>
+    <t>https://www.cc.gatech.edu/faq</t>
+  </si>
+  <si>
+    <t>Institute Code 5248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The statement of purpose allows you to highlight areas of your background or interests that may not be clear in other areas of your application. Therefore, it is very important to write a clear and concise statement that expresses your interest in the program, and what you hope to gain from, or bring to, the program of study. You may address special features of the program that made it the right fit for you, or you may address specific topics that you are interested in studying. You may wish to address aspects of your personal, academic, and work-related experiences that would make effective contributions to the program or would showcase your knowledge and interest in your chosen area of study. This statement should be concise, outline a plan for graduate studies, and indicate why Georgia Tech is the right graduate program to meet this plan. It should include what you plan to accomplish with our MSCS degree, and what we should remember about you when considering your application.    </t>
+  </si>
+  <si>
+    <t>https://gradapp.gatech.edu/account/login?r=https%3a%2f%2fgradapp.gatech.edu%2fapply%2f</t>
+  </si>
+  <si>
+    <t>Graduate Studies accepts unofficial transcripts at the time of application. An unofficial transcript is simply an official transcript that has been opened. These can be uploaded in the Academic History section of this application. If you are admitted, we will then require that you submit your official transcripts.</t>
+  </si>
+  <si>
+    <t>Office of Graduate Studies
+Georgia Institute of Technology
+631 Cherry St., Room 318
+Atlanta, GA 30332-0321</t>
+  </si>
+  <si>
+    <t>GRE Institute code: R5248</t>
+  </si>
+  <si>
+    <t>Master of Science in Computer Science (Specialization in Computing Systems)</t>
+  </si>
 </sst>
 </file>
 
@@ -788,7 +845,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -959,6 +1016,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Sim Sun"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -1099,7 +1166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1237,6 +1304,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1246,7 +1319,57 @@
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规 2 2 8" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.79982909634693444"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79982909634693444"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF002060"/>
@@ -1909,9 +2032,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1943,7 +2066,7 @@
     <col min="27" max="27" width="12.6640625" style="1" customWidth="1"/>
     <col min="28" max="29" width="9" style="1"/>
     <col min="30" max="30" width="13.5" style="1" customWidth="1"/>
-    <col min="31" max="31" width="12.1640625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="17.6640625" style="1" customWidth="1"/>
     <col min="32" max="32" width="20.33203125" style="1" customWidth="1"/>
     <col min="33" max="16384" width="9" style="1"/>
   </cols>
@@ -2125,7 +2248,9 @@
       <c r="AD2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="18"/>
+      <c r="AE2" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="AF2" s="21" t="s">
         <v>12</v>
       </c>
@@ -2170,7 +2295,9 @@
       <c r="O3" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="P3" s="18"/>
+      <c r="P3" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="Q3" s="29" t="s">
         <v>163</v>
       </c>
@@ -2205,7 +2332,9 @@
       <c r="AD3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AE3" s="18"/>
+      <c r="AE3" s="21" t="s">
+        <v>168</v>
+      </c>
       <c r="AF3" s="21" t="s">
         <v>168</v>
       </c>
@@ -2287,7 +2416,9 @@
       <c r="AD4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AE4" s="18"/>
+      <c r="AE4" s="21" t="s">
+        <v>168</v>
+      </c>
       <c r="AF4" s="21" t="s">
         <v>168</v>
       </c>
@@ -2301,22 +2432,46 @@
       <c r="B5" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
+      <c r="C5" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="19"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
+      <c r="L5" s="18" t="s">
+        <v>78</v>
+      </c>
       <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="18"/>
+      <c r="N5" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="P5" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q5" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>189</v>
+      </c>
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
       <c r="U5" s="22"/>
@@ -2345,7 +2500,9 @@
       <c r="AD5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AE5" s="18"/>
+      <c r="AE5" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="AF5" s="21" t="s">
         <v>12</v>
       </c>
@@ -2421,7 +2578,9 @@
       <c r="AD6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AE6" s="18"/>
+      <c r="AE6" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="AF6" s="21" t="s">
         <v>168</v>
       </c>
@@ -2466,7 +2625,9 @@
       <c r="O7" s="30">
         <v>2111</v>
       </c>
-      <c r="P7" s="29"/>
+      <c r="P7" s="29" t="s">
+        <v>180</v>
+      </c>
       <c r="Q7" s="29"/>
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
@@ -2499,7 +2660,9 @@
       <c r="AD7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AE7" s="18"/>
+      <c r="AE7" s="21" t="s">
+        <v>168</v>
+      </c>
       <c r="AF7" s="21" t="s">
         <v>168</v>
       </c>
@@ -2581,7 +2744,9 @@
       <c r="AD8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AE8" s="18"/>
+      <c r="AE8" s="21" t="s">
+        <v>168</v>
+      </c>
       <c r="AF8" s="21" t="s">
         <v>168</v>
       </c>
@@ -2626,7 +2791,9 @@
       <c r="O9" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="P9" s="29"/>
+      <c r="P9" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="Q9" s="44" t="s">
         <v>166</v>
       </c>
@@ -2661,7 +2828,9 @@
       <c r="AD9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AE9" s="18"/>
+      <c r="AE9" s="21" t="s">
+        <v>168</v>
+      </c>
       <c r="AF9" s="21" t="s">
         <v>168</v>
       </c>
@@ -2737,7 +2906,9 @@
       <c r="AD10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AE10" s="18"/>
+      <c r="AE10" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="AF10" s="21" t="s">
         <v>12</v>
       </c>
@@ -2813,7 +2984,9 @@
       <c r="AD11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AE11" s="18"/>
+      <c r="AE11" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="AF11" s="21" t="s">
         <v>12</v>
       </c>
@@ -2889,7 +3062,9 @@
       <c r="AD12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AE12" s="18"/>
+      <c r="AE12" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="AF12" s="21" t="s">
         <v>12</v>
       </c>
@@ -2965,7 +3140,9 @@
       <c r="AD13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AE13" s="18"/>
+      <c r="AE13" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="AF13" s="21" t="s">
         <v>12</v>
       </c>
@@ -3043,7 +3220,9 @@
       <c r="AD14" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AE14" s="18"/>
+      <c r="AE14" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="AF14" s="21" t="s">
         <v>168</v>
       </c>
@@ -3053,133 +3232,152 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="W2:X14">
-    <cfRule type="containsText" dxfId="32" priority="168" operator="containsText" text="已撤回/放弃">
+    <cfRule type="containsText" dxfId="37" priority="173" operator="containsText" text="已撤回/放弃">
       <formula>NOT(ISERROR(SEARCH("已撤回/放弃",W2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="169" operator="containsText" text="已拒绝">
+    <cfRule type="containsText" dxfId="36" priority="174" operator="containsText" text="已拒绝">
       <formula>NOT(ISERROR(SEARCH("已拒绝",W2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="170" operator="containsText" text="已录取">
+    <cfRule type="containsText" dxfId="35" priority="175" operator="containsText" text="已录取">
       <formula>NOT(ISERROR(SEARCH("已录取",W2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="171" operator="containsText" text="已完成未提交">
+    <cfRule type="containsText" dxfId="34" priority="176" operator="containsText" text="已完成未提交">
       <formula>NOT(ISERROR(SEARCH("已完成未提交",W2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="172" operator="containsText" text="已提交">
+    <cfRule type="containsText" dxfId="33" priority="177" operator="containsText" text="已提交">
       <formula>NOT(ISERROR(SEARCH("已提交",W2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="173" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="32" priority="178" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",W2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC2:AD14 AF2:AF14 V2:V14">
-    <cfRule type="cellIs" dxfId="26" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="140" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="141" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="161" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="29" priority="166" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",V2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="162" operator="containsText" text="完成">
+    <cfRule type="containsText" dxfId="28" priority="167" operator="containsText" text="完成">
       <formula>NOT(ISERROR(SEARCH("完成",V2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC6:AD7">
-    <cfRule type="containsText" dxfId="22" priority="163" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="27" priority="168" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",AC6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="164" operator="containsText" text="完成">
+    <cfRule type="containsText" dxfId="26" priority="169" operator="containsText" text="完成">
       <formula>NOT(ISERROR(SEARCH("完成",AC6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8:AD8">
-    <cfRule type="containsText" dxfId="20" priority="159" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="25" priority="164" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",AC8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="160" operator="containsText" text="完成">
+    <cfRule type="containsText" dxfId="24" priority="165" operator="containsText" text="完成">
       <formula>NOT(ISERROR(SEARCH("完成",AC8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC9:AD14">
-    <cfRule type="containsText" dxfId="18" priority="155" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="23" priority="160" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",AC9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="156" operator="containsText" text="完成">
+    <cfRule type="containsText" dxfId="22" priority="161" operator="containsText" text="完成">
       <formula>NOT(ISERROR(SEARCH("完成",AC9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:AB14">
-    <cfRule type="cellIs" dxfId="16" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="152" operator="equal">
       <formula>"已提交"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="153" operator="equal">
       <formula>"已发送"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="154" operator="equal">
       <formula>"未发送"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="151" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="18" priority="156" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",Z2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="152" operator="containsText" text="完成">
+    <cfRule type="containsText" dxfId="17" priority="157" operator="containsText" text="完成">
       <formula>NOT(ISERROR(SEARCH("完成",Z2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC2:AD14 AF2:AF14 V2:V14">
-    <cfRule type="cellIs" dxfId="11" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="155" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W14">
-    <cfRule type="cellIs" dxfId="10" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="145" operator="equal">
       <formula>"已录取"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="151" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X14">
-    <cfRule type="cellIs" dxfId="8" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="142" operator="equal">
       <formula>"已发送WES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="143" operator="equal">
       <formula>"已邮寄"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="144" operator="equal">
       <formula>"已上传"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V6:V7">
-    <cfRule type="containsText" dxfId="5" priority="12" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",V6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="13" operator="containsText" text="完成">
+    <cfRule type="containsText" dxfId="9" priority="18" operator="containsText" text="完成">
       <formula>NOT(ISERROR(SEARCH("完成",V6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8">
-    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",V8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="完成">
+    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="完成">
       <formula>NOT(ISERROR(SEARCH("完成",V8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9:V14">
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",V9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="完成">
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="完成">
       <formula>NOT(ISERROR(SEARCH("完成",V9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE2:AE14">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",AE2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="完成">
+      <formula>NOT(ISERROR(SEARCH("完成",AE2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE2:AE14">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X14" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"已上传,已邮寄,未完成,已发送WES"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V14 AC2:AD14 AF2:AF14" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V14 AC2:AF14" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"完成,未完成"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W14" xr:uid="{00000000-0002-0000-0000-000002000000}">
@@ -3236,9 +3434,15 @@
     <hyperlink ref="H6" r:id="rId47" xr:uid="{8AFB45E1-81B3-5C40-8B23-950635255762}"/>
     <hyperlink ref="H14" r:id="rId48" xr:uid="{7D7D4C43-9EB6-3749-B614-F83745EFEC09}"/>
     <hyperlink ref="P14" r:id="rId49" xr:uid="{598E0DD4-550C-C144-A2E3-8A034F20CBFC}"/>
+    <hyperlink ref="P3" r:id="rId50" xr:uid="{61853AA1-8110-2049-B32D-C0944B235A33}"/>
+    <hyperlink ref="P9" r:id="rId51" location="Intent" xr:uid="{D173156A-7229-C046-9366-4F5ED460A2E5}"/>
+    <hyperlink ref="E5" r:id="rId52" xr:uid="{0982BA71-29AB-9A4A-911C-6D8256ACA7CA}"/>
+    <hyperlink ref="F5" r:id="rId53" xr:uid="{52D0097F-324A-D94F-B0A0-E8E9C14AA7A5}"/>
+    <hyperlink ref="G5" r:id="rId54" xr:uid="{45F00734-9394-0547-993D-8438A8137D75}"/>
+    <hyperlink ref="H5" r:id="rId55" xr:uid="{F2244997-B0FF-5546-B3D9-10F0B938B54A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId50"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId56"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/自己申请Oct_27.xlsx
+++ b/自己申请Oct_27.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0C19A3-A3E7-C044-B939-6624545770C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AB72AB-68EC-E046-AA26-39FF8A8F59DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2033,8 +2033,8 @@
   <dimension ref="A1:AH14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <pane xSplit="3" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2482,7 +2482,7 @@
         <v>12</v>
       </c>
       <c r="X5" s="20" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="Y5" s="18"/>
       <c r="Z5" s="21" t="s">
@@ -2504,7 +2504,7 @@
         <v>12</v>
       </c>
       <c r="AF5" s="21" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="AG5" s="18"/>
       <c r="AH5" s="18"/>
